--- a/RIV4-tests/src/test/resources/imports/project/project-general-nig.xlsx
+++ b/RIV4-tests/src/test/resources/imports/project/project-general-nig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>General costs detail</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Total cost</t>
   </si>
   <si>
-    <t>Public/state resources</t>
-  </si>
-  <si>
-    <t>Other funding sources</t>
-  </si>
-  <si>
     <t>Total amount of uncovered resources</t>
   </si>
   <si>
@@ -85,12 +79,22 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Donated</t>
+  </si>
+  <si>
+    <t>Donated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -140,12 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -487,17 +492,17 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25">
+    <row r="1" spans="1:7" ht="25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,21 +519,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -544,19 +546,16 @@
         <v>600</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>E4-F4-G4</f>
+        <f>E4-F4</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -572,16 +571,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f>E5-F5-G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <f t="shared" ref="G5:G6" si="0">E5-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4">
         <f>SUM(E4:E5)</f>
@@ -592,20 +588,16 @@
         <v>600</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM(H4:H5)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,21 +614,18 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -649,22 +638,19 @@
         <v>50400</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G10" s="4">
-        <v>4500</v>
-      </c>
-      <c r="H10" s="4">
-        <f>E10-F10-G10</f>
+        <f>E10-F10</f>
         <v>45900</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -680,16 +666,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f>E11-F11-G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f t="shared" ref="G11:G12" si="1">E11-F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4">
         <f>SUM(E10:E11)</f>
@@ -697,23 +680,19 @@
       </c>
       <c r="F12" s="4">
         <f>SUM(F10:F11)</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G12" s="4">
-        <f>SUM(G10:G11)</f>
-        <v>4500</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM(H10:H11)</f>
+        <f t="shared" si="1"/>
         <v>45900</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,21 +709,18 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -760,19 +736,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f>E16-F16-G16</f>
+        <f>E16-F16</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -788,16 +761,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f>E17-F17-G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f t="shared" ref="G17:G18" si="2">E17-F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E16:E17)</f>
@@ -808,17 +778,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f>SUM(G16:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f>SUM(H16:H17)</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <f>E6+E12+E18</f>
@@ -826,14 +792,10 @@
       </c>
       <c r="F20">
         <f>F6+F12+F18</f>
-        <v>600</v>
-      </c>
-      <c r="G20">
+        <v>5100</v>
+      </c>
+      <c r="G20" s="5">
         <f>G6+G12+G18</f>
-        <v>4500</v>
-      </c>
-      <c r="H20">
-        <f>H6+H12+H18</f>
         <v>87700</v>
       </c>
     </row>
